--- a/mybot/project/resources/settings/logo.xlsx
+++ b/mybot/project/resources/settings/logo.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,231 +463,501 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Винница</t>
+          <t>Кривой Рог</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>310796091</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Днепр</t>
+          <t>Кривой Рог</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>471125560</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Житомир</t>
+          <t>Кривой Рог</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>513905699</t>
+          <t>913008476</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Запорожье</t>
+          <t>Чернигов</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Каменское</t>
+          <t>Черкассы</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Луцк</t>
+          <t>Хмельницкий</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Львов</t>
+          <t>Херсон</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Мариуполь</t>
+          <t>Харьков</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>564605214</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Николаев</t>
+          <t>Харьков</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>901627344</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Одесса</t>
+          <t>Харьков</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>471125560</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Полтава</t>
+          <t>Харьков</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>901627344</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ровно</t>
+          <t>Тернополь</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Тернополь</t>
+          <t>Ровно</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Харьков</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>471125560</t>
+          <t>Полтава</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Херсон</t>
+          <t>Одесса</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Хмельницкий</t>
+          <t>Николаев</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Черкассы</t>
+          <t>Мариуполь</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>546802359</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Чернигов</t>
+          <t>Мариуполь</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>471125560</t>
+          <t>546802359</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Львов</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Луцк</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Каменское</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>333650644</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Каменское</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>310796091</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Каменское</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>401848467</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Запорожье</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>525934688</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Запорожье</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1414287395</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Запорожье</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>264262717</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Запорожье</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>264262717</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Житомир</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Днепр</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>333650644</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Днепр</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>310796091</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Днепр</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>401848467</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Днепр</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>401848467</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Винница</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1414287395</t>
         </is>
       </c>
     </row>
@@ -702,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,102 +1073,102 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ТВ Чернигов Кирпоноса 26</t>
+          <t>Харьков, Александровский 156</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ТВ Черкаси Смилянская 45</t>
+          <t>Кривой Рог, Волгоградская 9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ТВ Хмельницкий Лыбидь Плаза</t>
+          <t>Кривой Рог, Содружества 66А</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ТВ Хмельницкий Вуд Молл</t>
+          <t>Кривой Рог, Космонавтов 3а</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ТВ Херсон Ушакова 45</t>
+          <t>Днепр, Б.Хмельницкого</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ТВ Херсон Некрасова 29</t>
+          <t>Харьков, Героев Сталинграда 179</t>
         </is>
       </c>
     </row>
@@ -910,29 +1180,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ТВ Харьков Ярослава Мудрого</t>
+          <t>Харьков, Науки 64</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ТВ Харьков, Полтавский Шлях 140</t>
+          <t>ТВ Днепр Нагорка</t>
         </is>
       </c>
     </row>
@@ -944,571 +1214,775 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ТВ Днепр Кодак</t>
+          <t>Днепр, Каменское Свободы 53</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ТВ Харьков Нетеченская 25</t>
+          <t>Кривой Рог, ТВ Лермонтова 22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ТВ Харьков Людвига Свободы 28</t>
+          <t>ТВ Чернигов Кирпоноса 26</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ТВ Харьков Героев Труда 29г</t>
+          <t>ТВ Черкаси Смилянская 45</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ТВ Харьков, СД Клочковская 9а</t>
+          <t>ТВ Хмельницкий Лыбидь Плаза</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ТВ Тернополь Шептицкого 20</t>
+          <t>ТВ Хмельницкий Вуд Молл</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ТВ Ровно Арена</t>
+          <t>ТВ Херсон Ушакова 45</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ТВ Полтава Небесной сотни 10</t>
+          <t>ТВ Херсон Некрасова 29</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ТВ Одесса Преображенская 45а</t>
+          <t>ТВ Харьков Ярослава Мудрого</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ТВ Одесса Глушко 17</t>
+          <t>ТВ Харьков, Полтавский Шлях 140</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ТВ Одесса Семафорный 4Т</t>
+          <t>ТВ Днепр Кодак</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ТВ Днепр Апполо</t>
+          <t>ТВ Харьков Нетеченская 25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ТВ Одесса Сахарова 1Б</t>
+          <t>ТВ Харьков Людвига Свободы 28</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ТВ Одесса Лип 13А</t>
+          <t>ТВ Харьков Героев Труда 29г</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ТВ Одесса Сахарова 1Б</t>
+          <t>ТВ Харьков, СД Клочковская 9а</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ТВ Одесса Глушко 17</t>
+          <t>ТВ Тернополь Шептицкого 20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ТВ Одесса Преображенская 45а</t>
+          <t>ТВ Ровно Арена</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ТВ Николаев пр-т Богоявленский</t>
+          <t>ТВ Полтава Небесной сотни 10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ТВ Николаев Центральный 171/2</t>
+          <t>ТВ Одесса Преображенская 45а</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ТВ Мариуполь Порт Сити</t>
+          <t>ТВ Одесса Глушко 17</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ТВ Львов Шувар</t>
+          <t>ТВ Одесса Семафорный 4Т</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ТВ Львов Спартак</t>
+          <t>ТВ Днепр Апполо</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ТВ Винница Пирогова 8</t>
+          <t>ТВ Одесса Сахарова 1Б</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ТВ Львов Виктория Гарден</t>
+          <t>ТВ Одесса Лип 13А</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ТВ Луцк Воли 15</t>
+          <t>ТВ Одесса Сахарова 1Б</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ТВ Запорожье,ул. Сытова, 4А</t>
+          <t>ТВ Одесса Глушко 17</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ТВ Запорожье, Бородинская 9</t>
+          <t>ТВ Одесса Преображенская 45а</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ТВ Запорожье Украина</t>
+          <t>ТВ Николаев пр-т Богоявленский</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ТВ Запорожье Соборный 44</t>
+          <t>ТВ Николаев Центральный 171/2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ТВ Запорожье Соборный 222</t>
+          <t>ТВ Мариуполь Порт Сити</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ТВ Житомир Киевская 106</t>
+          <t>ТВ Львов Шувар</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ТВ Днепр Паникахи</t>
+          <t>ТВ Львов Спартак</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ТВ Днепр Поля</t>
+          <t>ТВ Винница Пирогова 8</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ТВ Львов Виктория Гарден</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ТВ Луцк Воли 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ТВ Запорожье,ул. Сытова, 4А</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ТВ Запорожье, Бородинская 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ТВ Запорожье Украина</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ТВ Запорожье Соборный 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ТВ Запорожье Соборный 222</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ТВ Житомир Киевская 106</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ТВ Днепр Паникахи</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ТВ Днепр Поля</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Харьков, ТВ Юбилейный 89</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Мариуполь, Шевченко 89/105</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>ТВ Винница Коцюбинского 78а</t>
         </is>

--- a/mybot/project/resources/settings/logo.xlsx
+++ b/mybot/project/resources/settings/logo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22395" windowHeight="11310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,13 @@
     <sheet name="adr" sheetId="3" r:id="rId3"/>
     <sheet name="delivery" sheetId="4" r:id="rId4"/>
     <sheet name="weight" sheetId="5" r:id="rId5"/>
-    <sheet name="user_delivery" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -197,13 +196,298 @@
     <t>address</t>
   </si>
   <si>
+    <t>ТВ Винница Коцюбинского 78а</t>
+  </si>
+  <si>
+    <t>ТВ Винница Пирогова 8</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Апполо</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Кодак</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Нагорка</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Шолохова 7</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Яворницкого</t>
+  </si>
+  <si>
+    <t>ТВ Каменское Свободы 53</t>
+  </si>
+  <si>
     <t>ТВ Днепр Ломаная, 2</t>
   </si>
   <si>
-    <t>ТВ Каменское Свободы 53</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Яворницкого</t>
+    <t>ТВ Днепр Поля</t>
+  </si>
+  <si>
+    <t>Харьков, ТВ Юбилейный 89</t>
+  </si>
+  <si>
+    <t>Мариуполь, Шевченко 89/105</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Паникахи</t>
+  </si>
+  <si>
+    <t>ТВ Житомир Киевская 106</t>
+  </si>
+  <si>
+    <t>ТВ Запорожье Соборный 222</t>
+  </si>
+  <si>
+    <t>ТВ Запорожье Соборный 44</t>
+  </si>
+  <si>
+    <t>ТВ Запорожье Украина</t>
+  </si>
+  <si>
+    <t>ТВ Запорожье, Бородинская 9</t>
+  </si>
+  <si>
+    <t>ТВ Запорожье,ул. Сытова, 4А</t>
+  </si>
+  <si>
+    <t>ТВ Луцк Воли 15</t>
+  </si>
+  <si>
+    <t>ТВ Львов Виктория Гарден</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ТВ Львов Спартак</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>ТВ Львов Шувар</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>ТВ Мариуполь Порт Сити</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>ТВ Николаев Центральный 171/2</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ТВ Николаев пр-т Богоявленский</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ТВ Одесса Преображенская 45а</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>ТВ Одесса Глушко 17</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>ТВ Одесса Сахарова 1Б</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>ТВ Одесса Лип 13А</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>ТВ Одесса Семафорный 4Т</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>ТВ Полтава Небесной сотни 10</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>ТВ Ровно Арена</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>ТВ Тернополь Шептицкого 20</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>ТВ Харьков, СД Клочковская 9а</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Героев Труда 29г</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Людвига Свободы 28</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Нетеченская 25</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>ТВ Харьков, Полтавский Шлях 140</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Ярослава Мудрого</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>ТВ Херсон Некрасова 29</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>ТВ Херсон Ушакова 45</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>ТВ Хмельницкий Вуд Молл</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>ТВ Хмельницкий Лыбидь Плаза</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>ТВ Черкаси Смилянская 45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>ТВ Чернигов Кирпоноса 26</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Кривой Рог, ТВ Лермонтова 22</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Днепр, Каменское Свободы 53</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Харьков, Науки 64</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Харьков, Героев Сталинграда 179</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Днепр, Б.Хмельницкого</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Космонавтов 3а</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Содружества 66А</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Волгоградская 9</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Харьков, Александровский 156</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Днепр, Павлоград</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Днепр, Кропивницкое</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Харьков, Стадионный 5а</t>
   </si>
   <si>
     <t>60</t>
@@ -212,291 +496,6 @@
     <t>Кривой Рог, город</t>
   </si>
   <si>
-    <t>ТВ Днепр Шолохова 7</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Харьков, Стадионный 5а</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Днепр, Кропивницкое</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Днепр, Павлоград</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Харьков, Александровский 156</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Волгоградская 9</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Содружества 66А</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Космонавтов 3а</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Днепр, Б.Хмельницкого</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Харьков, Героев Сталинграда 179</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Харьков, Науки 64</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Нагорка</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Днепр, Каменское Свободы 53</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Кривой Рог, ТВ Лермонтова 22</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>ТВ Чернигов Кирпоноса 26</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>ТВ Черкаси Смилянская 45</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>ТВ Хмельницкий Лыбидь Плаза</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>ТВ Хмельницкий Вуд Молл</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>ТВ Херсон Ушакова 45</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>ТВ Херсон Некрасова 29</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Ярослава Мудрого</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>ТВ Харьков, Полтавский Шлях 140</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Кодак</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Нетеченская 25</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Людвига Свободы 28</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Героев Труда 29г</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>ТВ Харьков, СД Клочковская 9а</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>ТВ Тернополь Шептицкого 20</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>ТВ Ровно Арена</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>ТВ Полтава Небесной сотни 10</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>ТВ Одесса Преображенская 45а</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>ТВ Одесса Глушко 17</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>ТВ Одесса Семафорный 4Т</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Апполо</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>ТВ Одесса Сахарова 1Б</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>ТВ Одесса Лип 13А</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>ТВ Николаев пр-т Богоявленский</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>ТВ Николаев Центральный 171/2</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>ТВ Мариуполь Порт Сити</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>ТВ Львов Шувар</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>ТВ Львов Спартак</t>
-  </si>
-  <si>
-    <t>ТВ Винница Пирогова 8</t>
-  </si>
-  <si>
-    <t>ТВ Львов Виктория Гарден</t>
-  </si>
-  <si>
-    <t>ТВ Луцк Воли 15</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье,ул. Сытова, 4А</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье, Бородинская 9</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье Украина</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье Соборный 44</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье Соборный 222</t>
-  </si>
-  <si>
-    <t>ТВ Житомир Киевская 106</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Паникахи</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Поля</t>
-  </si>
-  <si>
-    <t>Харьков, ТВ Юбилейный 89</t>
-  </si>
-  <si>
-    <t>Мариуполь, Шевченко 89/105</t>
-  </si>
-  <si>
-    <t>ТВ Винница Коцюбинского 78а</t>
-  </si>
-  <si>
     <t>Вип</t>
   </si>
   <si>
@@ -531,12 +530,6 @@
   </si>
   <si>
     <t>2т</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>id_delivery</t>
   </si>
 </sst>
 </file>
@@ -572,11 +565,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -891,26 +881,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -960,10 +944,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -977,42 +961,45 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1023,7 +1010,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,7 +1021,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1045,7 +1032,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1056,61 +1043,61 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1126,32 +1113,32 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1162,7 +1149,7 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1173,18 +1160,18 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1195,7 +1182,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1206,7 +1193,7 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,21 +1209,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1247,7 +1234,7 @@
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1258,7 +1245,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1280,18 +1267,40 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>52</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>53</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1303,17 +1312,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1337,7 +1338,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,7 +1349,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,7 +1360,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,7 +1371,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1381,7 +1382,7 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,7 +1404,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1414,7 +1415,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,7 +1426,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,7 +1437,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,7 +1448,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,7 +1459,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1469,7 +1470,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,7 +1481,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,7 +1492,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1502,7 +1503,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1524,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1535,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1557,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,10 +1566,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,10 +1577,10 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,10 +1588,10 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,10 +1599,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,10 +1610,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,10 +1621,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,10 +1632,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,10 +1643,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,10 +1654,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,10 +1665,10 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,10 +1676,10 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,10 +1687,10 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,10 +1698,10 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,10 +1709,10 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,10 +1731,10 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,10 +1742,10 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,10 +1764,10 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,10 +1775,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,10 +1786,10 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1796,10 +1797,10 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1807,10 +1808,10 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1818,10 +1819,10 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1829,10 +1830,10 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1840,10 +1841,10 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1851,10 +1852,10 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1862,10 +1863,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1873,10 +1874,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1884,10 +1885,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1895,10 +1896,10 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1906,10 +1907,10 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1917,10 +1918,10 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1928,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1939,10 +1940,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1950,10 +1951,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,10 +1962,10 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1972,10 +1973,10 @@
         <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1983,10 +1984,10 @@
         <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1994,10 +1995,10 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,16 +2006,13 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D63">
-    <sortCondition ref="B2:B63"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2023,13 +2021,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,6 +2048,9 @@
       <c r="B2" t="s">
         <v>157</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2058,6 +2059,9 @@
       <c r="B3" t="s">
         <v>158</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2066,6 +2070,9 @@
       <c r="B4" t="s">
         <v>159</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2074,6 +2081,9 @@
       <c r="B5" t="s">
         <v>160</v>
       </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2082,6 +2092,9 @@
       <c r="B6" t="s">
         <v>161</v>
       </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2090,6 +2103,9 @@
       <c r="B7" t="s">
         <v>162</v>
       </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2098,6 +2114,9 @@
       <c r="B8" t="s">
         <v>163</v>
       </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2106,6 +2125,9 @@
       <c r="B9" t="s">
         <v>164</v>
       </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2113,6 +2135,9 @@
       </c>
       <c r="B10" t="s">
         <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2124,9 +2149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2168,139 +2191,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/mybot/project/resources/settings/logo.xlsx
+++ b/mybot/project/resources/settings/logo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22395" windowHeight="11310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="203">
   <si>
     <t>id</t>
   </si>
@@ -196,330 +196,306 @@
     <t>address</t>
   </si>
   <si>
+    <t>ТВ Днепр Ломаная, 2</t>
+  </si>
+  <si>
+    <t>ТВ Каменское Свободы 53</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Яворницкого</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Шолохова 7</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Харьков, Стадионный 5а</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Днепр, Кропивницкое</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Днепр, Павлоград</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Харьков, Александровский 156</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Волгоградская 9</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Содружества 66А</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Космонавтов 3а</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Днепр, Б.Хмельницкого</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Харьков, Героев Сталинграда 179</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Харьков, Науки 64</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Нагорка</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Днепр, Каменское Свободы 53</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Кривой Рог, ТВ Лермонтова 22</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>ТВ Чернигов Кирпоноса 26</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>ТВ Черкаси Смилянская 45</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>ТВ Хмельницкий Лыбидь Плаза</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>ТВ Хмельницкий Вуд Молл</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>ТВ Херсон Ушакова 45</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>ТВ Херсон Некрасова 29</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Ярослава Мудрого</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>ТВ Харьков, Полтавский Шлях 140</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Кодак</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Нетеченская 25</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Людвига Свободы 28</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Героев Труда 29г</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>ТВ Харьков, СД Клочковская 9а</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>ТВ Тернополь Шептицкого 20</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>ТВ Ровно Арена</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>ТВ Полтава Небесной сотни 10</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>ТВ Одесса Преображенская 45а</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>ТВ Одесса Глушко 17</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>ТВ Одесса Семафорный 4Т</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Апполо</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>ТВ Одесса Сахарова 1Б</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>ТВ Одесса Лип 13А</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ТВ Николаев пр-т Богоявленский</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>ТВ Николаев Центральный 171/2</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>ТВ Мариуполь Порт Сити</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>ТВ Львов Шувар</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ТВ Львов Спартак</t>
+  </si>
+  <si>
+    <t>ТВ Винница Пирогова 8</t>
+  </si>
+  <si>
+    <t>ТВ Львов Виктория Гарден</t>
+  </si>
+  <si>
+    <t>ТВ Луцк Воли 15</t>
+  </si>
+  <si>
+    <t>ТВ Запорожье,ул. Сытова, 4А</t>
+  </si>
+  <si>
+    <t>ТВ Запорожье, Бородинская 9</t>
+  </si>
+  <si>
+    <t>ТВ Запорожье Украина</t>
+  </si>
+  <si>
+    <t>ТВ Запорожье Соборный 44</t>
+  </si>
+  <si>
+    <t>ТВ Запорожье Соборный 222</t>
+  </si>
+  <si>
+    <t>ТВ Житомир Киевская 106</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Паникахи</t>
+  </si>
+  <si>
+    <t>ТВ Днепр Поля</t>
+  </si>
+  <si>
+    <t>Харьков, ТВ Юбилейный 89</t>
+  </si>
+  <si>
+    <t>Мариуполь, Шевченко 89/105</t>
+  </si>
+  <si>
     <t>ТВ Винница Коцюбинского 78а</t>
   </si>
   <si>
-    <t>ТВ Винница Пирогова 8</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Апполо</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Кодак</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Нагорка</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Шолохова 7</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Яворницкого</t>
-  </si>
-  <si>
-    <t>ТВ Каменское Свободы 53</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Ломаная, 2</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Поля</t>
-  </si>
-  <si>
-    <t>Харьков, ТВ Юбилейный 89</t>
-  </si>
-  <si>
-    <t>Мариуполь, Шевченко 89/105</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Паникахи</t>
-  </si>
-  <si>
-    <t>ТВ Житомир Киевская 106</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье Соборный 222</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье Соборный 44</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье Украина</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье, Бородинская 9</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье,ул. Сытова, 4А</t>
-  </si>
-  <si>
-    <t>ТВ Луцк Воли 15</t>
-  </si>
-  <si>
-    <t>ТВ Львов Виктория Гарден</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>ТВ Львов Спартак</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>ТВ Львов Шувар</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>ТВ Мариуполь Порт Сити</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>ТВ Николаев Центральный 171/2</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>ТВ Николаев пр-т Богоявленский</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>ТВ Одесса Преображенская 45а</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>ТВ Одесса Глушко 17</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>ТВ Одесса Сахарова 1Б</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>ТВ Одесса Лип 13А</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>ТВ Одесса Семафорный 4Т</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>ТВ Полтава Небесной сотни 10</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>ТВ Ровно Арена</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>ТВ Тернополь Шептицкого 20</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>ТВ Харьков, СД Клочковская 9а</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Героев Труда 29г</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Людвига Свободы 28</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Нетеченская 25</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>ТВ Харьков, Полтавский Шлях 140</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Ярослава Мудрого</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>ТВ Херсон Некрасова 29</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>ТВ Херсон Ушакова 45</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>ТВ Хмельницкий Вуд Молл</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>ТВ Хмельницкий Лыбидь Плаза</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>ТВ Черкаси Смилянская 45</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>ТВ Чернигов Кирпоноса 26</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Кривой Рог, ТВ Лермонтова 22</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Днепр, Каменское Свободы 53</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Харьков, Науки 64</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Харьков, Героев Сталинграда 179</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Днепр, Б.Хмельницкого</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Космонавтов 3а</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Содружества 66А</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Волгоградская 9</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Харьков, Александровский 156</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Днепр, Павлоград</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Днепр, Кропивницкое</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Харьков, Стадионный 5а</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Кривой Рог, город</t>
-  </si>
-  <si>
-    <t>Вип</t>
-  </si>
-  <si>
-    <t>Космос</t>
-  </si>
-  <si>
     <t>Курьер</t>
   </si>
   <si>
-    <t>Мист</t>
-  </si>
-  <si>
-    <t>Джастин</t>
-  </si>
-  <si>
-    <t>Новая Почта</t>
-  </si>
-  <si>
-    <t>Теленексус</t>
-  </si>
-  <si>
-    <t>Координатор</t>
-  </si>
-  <si>
     <t>Неизвестно</t>
   </si>
   <si>
@@ -530,6 +506,132 @@
   </si>
   <si>
     <t>2т</t>
+  </si>
+  <si>
+    <t>Южный</t>
+  </si>
+  <si>
+    <t>Сумы</t>
+  </si>
+  <si>
+    <t>Кропивницкий</t>
+  </si>
+  <si>
+    <t>Павлоград</t>
+  </si>
+  <si>
+    <t>Александрия</t>
+  </si>
+  <si>
+    <t>Ужгород</t>
+  </si>
+  <si>
+    <t>Черновцы</t>
+  </si>
+  <si>
+    <t>Хмельницький</t>
+  </si>
+  <si>
+    <t>Ивано-Франковск</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>ТВ Григорьевского Десанта,3</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>ТВ ул.Кооперативная 1</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>ТВ ул.Харьковская 2/1</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>ТВ Кропивницкий Бол Перспективная 47</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>ТВ Павлоград Горького 164</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>ТВ Олександрія Соборний 100а</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>ТВ площа Шендора Петефі 17</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>ТВ вул.Незалежності 119</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>ТВ Кам'янецька 21</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>ТВ Трудова 6</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>ТВ вул. Січових Стрільців 68</t>
+  </si>
+  <si>
+    <t>ТОВ БСК Логістик</t>
+  </si>
+  <si>
+    <t>ТОВ ВІП-КРУЇЗ</t>
+  </si>
+  <si>
+    <t>ТОВ Космос</t>
+  </si>
+  <si>
+    <t>ТОВ Нова Пошта</t>
+  </si>
+  <si>
+    <t>ТОВ ТЕК КООРДИНАТОР</t>
+  </si>
+  <si>
+    <t>ТОВ ТК Експерт</t>
+  </si>
+  <si>
+    <t>ТОВ ТОП Транс Украина</t>
+  </si>
+  <si>
+    <t>ФОП Васильківський Р.Ю.</t>
+  </si>
+  <si>
+    <t>ФОП Коноплястий О.В.</t>
+  </si>
+  <si>
+    <t>ФОП Колесник В.В.</t>
   </si>
 </sst>
 </file>
@@ -565,8 +667,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -881,11 +984,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -900,158 +1010,161 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1059,190 +1172,184 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1250,71 +1357,129 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C38">
+    <sortCondition ref="A2:A38"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1338,7 +1503,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1349,7 +1514,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1360,7 +1525,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,7 +1536,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,7 +1547,7 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,7 +1558,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,7 +1569,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1415,7 +1580,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1426,7 +1591,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1437,29 +1602,29 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,10 +1632,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,10 +1643,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1489,10 +1654,10 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,10 +1665,10 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,10 +1676,10 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,10 +1687,10 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,10 +1698,10 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,10 +1709,10 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1555,10 +1720,10 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,10 +1731,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1577,10 +1742,10 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,10 +1753,10 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1610,10 +1775,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,10 +1786,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,10 +1797,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,10 +1808,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,10 +1819,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,10 +1830,10 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,10 +1841,10 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,10 +1863,10 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,10 +1874,10 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,10 +1885,10 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,10 +1896,10 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1742,10 +1907,10 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1753,10 +1918,10 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
         <v>109</v>
-      </c>
-      <c r="C40" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1764,10 +1929,10 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,10 +1940,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,10 +1951,10 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1797,10 +1962,10 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1808,10 +1973,10 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1819,10 +1984,10 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,10 +1995,10 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1841,10 +2006,10 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1852,10 +2017,10 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1863,10 +2028,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1874,10 +2039,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1885,10 +2050,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1896,10 +2061,10 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1907,10 +2072,10 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1918,10 +2083,10 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1929,10 +2094,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1940,10 +2105,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,10 +2116,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,10 +2127,10 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1973,10 +2138,10 @@
         <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,10 +2149,10 @@
         <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1995,39 +2160,153 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D63">
+    <sortCondition ref="B2:B63"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,10 +2325,7 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,10 +2333,7 @@
         <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2068,10 +2341,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2079,10 +2349,7 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2090,10 +2357,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2101,10 +2365,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2112,10 +2373,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2123,10 +2381,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2134,10 +2389,31 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +2445,7 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,7 +2453,7 @@
         <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,7 +2461,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
